--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC94-TORNILLERA AV # 2 TITANIO.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC94-TORNILLERA AV # 2 TITANIO.xlsx
@@ -1,35 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D927E3B-730C-4586-B947-F5F5FDA247BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -661,7 +673,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1348,13 +1360,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Moneda [0] 2" xfId="5"/>
-    <cellStyle name="Moneda 2" xfId="4"/>
-    <cellStyle name="Moneda 3 2" xfId="2"/>
+    <cellStyle name="Moneda [0] 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moneda 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal 3 2" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1714,408 +1726,408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="252" width="11.453125" style="1"/>
-    <col min="253" max="253" width="13.1796875" style="1" customWidth="1"/>
-    <col min="254" max="254" width="15.1796875" style="1" customWidth="1"/>
+    <col min="8" max="252" width="11.42578125" style="1"/>
+    <col min="253" max="253" width="13.140625" style="1" customWidth="1"/>
+    <col min="254" max="254" width="15.140625" style="1" customWidth="1"/>
     <col min="255" max="255" width="42" style="1" customWidth="1"/>
-    <col min="256" max="256" width="11.453125" style="1"/>
-    <col min="257" max="257" width="13.1796875" style="1" customWidth="1"/>
-    <col min="258" max="508" width="11.453125" style="1"/>
-    <col min="509" max="509" width="13.1796875" style="1" customWidth="1"/>
-    <col min="510" max="510" width="15.1796875" style="1" customWidth="1"/>
+    <col min="256" max="256" width="11.42578125" style="1"/>
+    <col min="257" max="257" width="13.140625" style="1" customWidth="1"/>
+    <col min="258" max="508" width="11.42578125" style="1"/>
+    <col min="509" max="509" width="13.140625" style="1" customWidth="1"/>
+    <col min="510" max="510" width="15.140625" style="1" customWidth="1"/>
     <col min="511" max="511" width="42" style="1" customWidth="1"/>
-    <col min="512" max="512" width="11.453125" style="1"/>
-    <col min="513" max="513" width="13.1796875" style="1" customWidth="1"/>
-    <col min="514" max="764" width="11.453125" style="1"/>
-    <col min="765" max="765" width="13.1796875" style="1" customWidth="1"/>
-    <col min="766" max="766" width="15.1796875" style="1" customWidth="1"/>
+    <col min="512" max="512" width="11.42578125" style="1"/>
+    <col min="513" max="513" width="13.140625" style="1" customWidth="1"/>
+    <col min="514" max="764" width="11.42578125" style="1"/>
+    <col min="765" max="765" width="13.140625" style="1" customWidth="1"/>
+    <col min="766" max="766" width="15.140625" style="1" customWidth="1"/>
     <col min="767" max="767" width="42" style="1" customWidth="1"/>
-    <col min="768" max="768" width="11.453125" style="1"/>
-    <col min="769" max="769" width="13.1796875" style="1" customWidth="1"/>
-    <col min="770" max="1020" width="11.453125" style="1"/>
-    <col min="1021" max="1021" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1022" max="1022" width="15.1796875" style="1" customWidth="1"/>
+    <col min="768" max="768" width="11.42578125" style="1"/>
+    <col min="769" max="769" width="13.140625" style="1" customWidth="1"/>
+    <col min="770" max="1020" width="11.42578125" style="1"/>
+    <col min="1021" max="1021" width="13.140625" style="1" customWidth="1"/>
+    <col min="1022" max="1022" width="15.140625" style="1" customWidth="1"/>
     <col min="1023" max="1023" width="42" style="1" customWidth="1"/>
-    <col min="1024" max="1024" width="11.453125" style="1"/>
-    <col min="1025" max="1025" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1026" max="1276" width="11.453125" style="1"/>
-    <col min="1277" max="1277" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1278" max="1278" width="15.1796875" style="1" customWidth="1"/>
+    <col min="1024" max="1024" width="11.42578125" style="1"/>
+    <col min="1025" max="1025" width="13.140625" style="1" customWidth="1"/>
+    <col min="1026" max="1276" width="11.42578125" style="1"/>
+    <col min="1277" max="1277" width="13.140625" style="1" customWidth="1"/>
+    <col min="1278" max="1278" width="15.140625" style="1" customWidth="1"/>
     <col min="1279" max="1279" width="42" style="1" customWidth="1"/>
-    <col min="1280" max="1280" width="11.453125" style="1"/>
-    <col min="1281" max="1281" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1282" max="1532" width="11.453125" style="1"/>
-    <col min="1533" max="1533" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1534" max="1534" width="15.1796875" style="1" customWidth="1"/>
+    <col min="1280" max="1280" width="11.42578125" style="1"/>
+    <col min="1281" max="1281" width="13.140625" style="1" customWidth="1"/>
+    <col min="1282" max="1532" width="11.42578125" style="1"/>
+    <col min="1533" max="1533" width="13.140625" style="1" customWidth="1"/>
+    <col min="1534" max="1534" width="15.140625" style="1" customWidth="1"/>
     <col min="1535" max="1535" width="42" style="1" customWidth="1"/>
-    <col min="1536" max="1536" width="11.453125" style="1"/>
-    <col min="1537" max="1537" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1538" max="1788" width="11.453125" style="1"/>
-    <col min="1789" max="1789" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1790" max="1790" width="15.1796875" style="1" customWidth="1"/>
+    <col min="1536" max="1536" width="11.42578125" style="1"/>
+    <col min="1537" max="1537" width="13.140625" style="1" customWidth="1"/>
+    <col min="1538" max="1788" width="11.42578125" style="1"/>
+    <col min="1789" max="1789" width="13.140625" style="1" customWidth="1"/>
+    <col min="1790" max="1790" width="15.140625" style="1" customWidth="1"/>
     <col min="1791" max="1791" width="42" style="1" customWidth="1"/>
-    <col min="1792" max="1792" width="11.453125" style="1"/>
-    <col min="1793" max="1793" width="13.1796875" style="1" customWidth="1"/>
-    <col min="1794" max="2044" width="11.453125" style="1"/>
-    <col min="2045" max="2045" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2046" max="2046" width="15.1796875" style="1" customWidth="1"/>
+    <col min="1792" max="1792" width="11.42578125" style="1"/>
+    <col min="1793" max="1793" width="13.140625" style="1" customWidth="1"/>
+    <col min="1794" max="2044" width="11.42578125" style="1"/>
+    <col min="2045" max="2045" width="13.140625" style="1" customWidth="1"/>
+    <col min="2046" max="2046" width="15.140625" style="1" customWidth="1"/>
     <col min="2047" max="2047" width="42" style="1" customWidth="1"/>
-    <col min="2048" max="2048" width="11.453125" style="1"/>
-    <col min="2049" max="2049" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2050" max="2300" width="11.453125" style="1"/>
-    <col min="2301" max="2301" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2302" max="2302" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2048" max="2048" width="11.42578125" style="1"/>
+    <col min="2049" max="2049" width="13.140625" style="1" customWidth="1"/>
+    <col min="2050" max="2300" width="11.42578125" style="1"/>
+    <col min="2301" max="2301" width="13.140625" style="1" customWidth="1"/>
+    <col min="2302" max="2302" width="15.140625" style="1" customWidth="1"/>
     <col min="2303" max="2303" width="42" style="1" customWidth="1"/>
-    <col min="2304" max="2304" width="11.453125" style="1"/>
-    <col min="2305" max="2305" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2306" max="2556" width="11.453125" style="1"/>
-    <col min="2557" max="2557" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2558" max="2558" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2304" max="2304" width="11.42578125" style="1"/>
+    <col min="2305" max="2305" width="13.140625" style="1" customWidth="1"/>
+    <col min="2306" max="2556" width="11.42578125" style="1"/>
+    <col min="2557" max="2557" width="13.140625" style="1" customWidth="1"/>
+    <col min="2558" max="2558" width="15.140625" style="1" customWidth="1"/>
     <col min="2559" max="2559" width="42" style="1" customWidth="1"/>
-    <col min="2560" max="2560" width="11.453125" style="1"/>
-    <col min="2561" max="2561" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2562" max="2812" width="11.453125" style="1"/>
-    <col min="2813" max="2813" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2814" max="2814" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2560" max="2560" width="11.42578125" style="1"/>
+    <col min="2561" max="2561" width="13.140625" style="1" customWidth="1"/>
+    <col min="2562" max="2812" width="11.42578125" style="1"/>
+    <col min="2813" max="2813" width="13.140625" style="1" customWidth="1"/>
+    <col min="2814" max="2814" width="15.140625" style="1" customWidth="1"/>
     <col min="2815" max="2815" width="42" style="1" customWidth="1"/>
-    <col min="2816" max="2816" width="11.453125" style="1"/>
-    <col min="2817" max="2817" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2818" max="3068" width="11.453125" style="1"/>
-    <col min="3069" max="3069" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3070" max="3070" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2816" max="2816" width="11.42578125" style="1"/>
+    <col min="2817" max="2817" width="13.140625" style="1" customWidth="1"/>
+    <col min="2818" max="3068" width="11.42578125" style="1"/>
+    <col min="3069" max="3069" width="13.140625" style="1" customWidth="1"/>
+    <col min="3070" max="3070" width="15.140625" style="1" customWidth="1"/>
     <col min="3071" max="3071" width="42" style="1" customWidth="1"/>
-    <col min="3072" max="3072" width="11.453125" style="1"/>
-    <col min="3073" max="3073" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3074" max="3324" width="11.453125" style="1"/>
-    <col min="3325" max="3325" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3326" max="3326" width="15.1796875" style="1" customWidth="1"/>
+    <col min="3072" max="3072" width="11.42578125" style="1"/>
+    <col min="3073" max="3073" width="13.140625" style="1" customWidth="1"/>
+    <col min="3074" max="3324" width="11.42578125" style="1"/>
+    <col min="3325" max="3325" width="13.140625" style="1" customWidth="1"/>
+    <col min="3326" max="3326" width="15.140625" style="1" customWidth="1"/>
     <col min="3327" max="3327" width="42" style="1" customWidth="1"/>
-    <col min="3328" max="3328" width="11.453125" style="1"/>
-    <col min="3329" max="3329" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3330" max="3580" width="11.453125" style="1"/>
-    <col min="3581" max="3581" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3582" max="3582" width="15.1796875" style="1" customWidth="1"/>
+    <col min="3328" max="3328" width="11.42578125" style="1"/>
+    <col min="3329" max="3329" width="13.140625" style="1" customWidth="1"/>
+    <col min="3330" max="3580" width="11.42578125" style="1"/>
+    <col min="3581" max="3581" width="13.140625" style="1" customWidth="1"/>
+    <col min="3582" max="3582" width="15.140625" style="1" customWidth="1"/>
     <col min="3583" max="3583" width="42" style="1" customWidth="1"/>
-    <col min="3584" max="3584" width="11.453125" style="1"/>
-    <col min="3585" max="3585" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3586" max="3836" width="11.453125" style="1"/>
-    <col min="3837" max="3837" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3838" max="3838" width="15.1796875" style="1" customWidth="1"/>
+    <col min="3584" max="3584" width="11.42578125" style="1"/>
+    <col min="3585" max="3585" width="13.140625" style="1" customWidth="1"/>
+    <col min="3586" max="3836" width="11.42578125" style="1"/>
+    <col min="3837" max="3837" width="13.140625" style="1" customWidth="1"/>
+    <col min="3838" max="3838" width="15.140625" style="1" customWidth="1"/>
     <col min="3839" max="3839" width="42" style="1" customWidth="1"/>
-    <col min="3840" max="3840" width="11.453125" style="1"/>
-    <col min="3841" max="3841" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3842" max="4092" width="11.453125" style="1"/>
-    <col min="4093" max="4093" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4094" max="4094" width="15.1796875" style="1" customWidth="1"/>
+    <col min="3840" max="3840" width="11.42578125" style="1"/>
+    <col min="3841" max="3841" width="13.140625" style="1" customWidth="1"/>
+    <col min="3842" max="4092" width="11.42578125" style="1"/>
+    <col min="4093" max="4093" width="13.140625" style="1" customWidth="1"/>
+    <col min="4094" max="4094" width="15.140625" style="1" customWidth="1"/>
     <col min="4095" max="4095" width="42" style="1" customWidth="1"/>
-    <col min="4096" max="4096" width="11.453125" style="1"/>
-    <col min="4097" max="4097" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4098" max="4348" width="11.453125" style="1"/>
-    <col min="4349" max="4349" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4350" max="4350" width="15.1796875" style="1" customWidth="1"/>
+    <col min="4096" max="4096" width="11.42578125" style="1"/>
+    <col min="4097" max="4097" width="13.140625" style="1" customWidth="1"/>
+    <col min="4098" max="4348" width="11.42578125" style="1"/>
+    <col min="4349" max="4349" width="13.140625" style="1" customWidth="1"/>
+    <col min="4350" max="4350" width="15.140625" style="1" customWidth="1"/>
     <col min="4351" max="4351" width="42" style="1" customWidth="1"/>
-    <col min="4352" max="4352" width="11.453125" style="1"/>
-    <col min="4353" max="4353" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4354" max="4604" width="11.453125" style="1"/>
-    <col min="4605" max="4605" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4606" max="4606" width="15.1796875" style="1" customWidth="1"/>
+    <col min="4352" max="4352" width="11.42578125" style="1"/>
+    <col min="4353" max="4353" width="13.140625" style="1" customWidth="1"/>
+    <col min="4354" max="4604" width="11.42578125" style="1"/>
+    <col min="4605" max="4605" width="13.140625" style="1" customWidth="1"/>
+    <col min="4606" max="4606" width="15.140625" style="1" customWidth="1"/>
     <col min="4607" max="4607" width="42" style="1" customWidth="1"/>
-    <col min="4608" max="4608" width="11.453125" style="1"/>
-    <col min="4609" max="4609" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4610" max="4860" width="11.453125" style="1"/>
-    <col min="4861" max="4861" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4862" max="4862" width="15.1796875" style="1" customWidth="1"/>
+    <col min="4608" max="4608" width="11.42578125" style="1"/>
+    <col min="4609" max="4609" width="13.140625" style="1" customWidth="1"/>
+    <col min="4610" max="4860" width="11.42578125" style="1"/>
+    <col min="4861" max="4861" width="13.140625" style="1" customWidth="1"/>
+    <col min="4862" max="4862" width="15.140625" style="1" customWidth="1"/>
     <col min="4863" max="4863" width="42" style="1" customWidth="1"/>
-    <col min="4864" max="4864" width="11.453125" style="1"/>
-    <col min="4865" max="4865" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4866" max="5116" width="11.453125" style="1"/>
-    <col min="5117" max="5117" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5118" max="5118" width="15.1796875" style="1" customWidth="1"/>
+    <col min="4864" max="4864" width="11.42578125" style="1"/>
+    <col min="4865" max="4865" width="13.140625" style="1" customWidth="1"/>
+    <col min="4866" max="5116" width="11.42578125" style="1"/>
+    <col min="5117" max="5117" width="13.140625" style="1" customWidth="1"/>
+    <col min="5118" max="5118" width="15.140625" style="1" customWidth="1"/>
     <col min="5119" max="5119" width="42" style="1" customWidth="1"/>
-    <col min="5120" max="5120" width="11.453125" style="1"/>
-    <col min="5121" max="5121" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5122" max="5372" width="11.453125" style="1"/>
-    <col min="5373" max="5373" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5374" max="5374" width="15.1796875" style="1" customWidth="1"/>
+    <col min="5120" max="5120" width="11.42578125" style="1"/>
+    <col min="5121" max="5121" width="13.140625" style="1" customWidth="1"/>
+    <col min="5122" max="5372" width="11.42578125" style="1"/>
+    <col min="5373" max="5373" width="13.140625" style="1" customWidth="1"/>
+    <col min="5374" max="5374" width="15.140625" style="1" customWidth="1"/>
     <col min="5375" max="5375" width="42" style="1" customWidth="1"/>
-    <col min="5376" max="5376" width="11.453125" style="1"/>
-    <col min="5377" max="5377" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5378" max="5628" width="11.453125" style="1"/>
-    <col min="5629" max="5629" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5630" max="5630" width="15.1796875" style="1" customWidth="1"/>
+    <col min="5376" max="5376" width="11.42578125" style="1"/>
+    <col min="5377" max="5377" width="13.140625" style="1" customWidth="1"/>
+    <col min="5378" max="5628" width="11.42578125" style="1"/>
+    <col min="5629" max="5629" width="13.140625" style="1" customWidth="1"/>
+    <col min="5630" max="5630" width="15.140625" style="1" customWidth="1"/>
     <col min="5631" max="5631" width="42" style="1" customWidth="1"/>
-    <col min="5632" max="5632" width="11.453125" style="1"/>
-    <col min="5633" max="5633" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5634" max="5884" width="11.453125" style="1"/>
-    <col min="5885" max="5885" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5886" max="5886" width="15.1796875" style="1" customWidth="1"/>
+    <col min="5632" max="5632" width="11.42578125" style="1"/>
+    <col min="5633" max="5633" width="13.140625" style="1" customWidth="1"/>
+    <col min="5634" max="5884" width="11.42578125" style="1"/>
+    <col min="5885" max="5885" width="13.140625" style="1" customWidth="1"/>
+    <col min="5886" max="5886" width="15.140625" style="1" customWidth="1"/>
     <col min="5887" max="5887" width="42" style="1" customWidth="1"/>
-    <col min="5888" max="5888" width="11.453125" style="1"/>
-    <col min="5889" max="5889" width="13.1796875" style="1" customWidth="1"/>
-    <col min="5890" max="6140" width="11.453125" style="1"/>
-    <col min="6141" max="6141" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6142" max="6142" width="15.1796875" style="1" customWidth="1"/>
+    <col min="5888" max="5888" width="11.42578125" style="1"/>
+    <col min="5889" max="5889" width="13.140625" style="1" customWidth="1"/>
+    <col min="5890" max="6140" width="11.42578125" style="1"/>
+    <col min="6141" max="6141" width="13.140625" style="1" customWidth="1"/>
+    <col min="6142" max="6142" width="15.140625" style="1" customWidth="1"/>
     <col min="6143" max="6143" width="42" style="1" customWidth="1"/>
-    <col min="6144" max="6144" width="11.453125" style="1"/>
-    <col min="6145" max="6145" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6146" max="6396" width="11.453125" style="1"/>
-    <col min="6397" max="6397" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6398" max="6398" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6144" max="6144" width="11.42578125" style="1"/>
+    <col min="6145" max="6145" width="13.140625" style="1" customWidth="1"/>
+    <col min="6146" max="6396" width="11.42578125" style="1"/>
+    <col min="6397" max="6397" width="13.140625" style="1" customWidth="1"/>
+    <col min="6398" max="6398" width="15.140625" style="1" customWidth="1"/>
     <col min="6399" max="6399" width="42" style="1" customWidth="1"/>
-    <col min="6400" max="6400" width="11.453125" style="1"/>
-    <col min="6401" max="6401" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6402" max="6652" width="11.453125" style="1"/>
-    <col min="6653" max="6653" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6654" max="6654" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6400" max="6400" width="11.42578125" style="1"/>
+    <col min="6401" max="6401" width="13.140625" style="1" customWidth="1"/>
+    <col min="6402" max="6652" width="11.42578125" style="1"/>
+    <col min="6653" max="6653" width="13.140625" style="1" customWidth="1"/>
+    <col min="6654" max="6654" width="15.140625" style="1" customWidth="1"/>
     <col min="6655" max="6655" width="42" style="1" customWidth="1"/>
-    <col min="6656" max="6656" width="11.453125" style="1"/>
-    <col min="6657" max="6657" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6658" max="6908" width="11.453125" style="1"/>
-    <col min="6909" max="6909" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6910" max="6910" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6656" max="6656" width="11.42578125" style="1"/>
+    <col min="6657" max="6657" width="13.140625" style="1" customWidth="1"/>
+    <col min="6658" max="6908" width="11.42578125" style="1"/>
+    <col min="6909" max="6909" width="13.140625" style="1" customWidth="1"/>
+    <col min="6910" max="6910" width="15.140625" style="1" customWidth="1"/>
     <col min="6911" max="6911" width="42" style="1" customWidth="1"/>
-    <col min="6912" max="6912" width="11.453125" style="1"/>
-    <col min="6913" max="6913" width="13.1796875" style="1" customWidth="1"/>
-    <col min="6914" max="7164" width="11.453125" style="1"/>
-    <col min="7165" max="7165" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7166" max="7166" width="15.1796875" style="1" customWidth="1"/>
+    <col min="6912" max="6912" width="11.42578125" style="1"/>
+    <col min="6913" max="6913" width="13.140625" style="1" customWidth="1"/>
+    <col min="6914" max="7164" width="11.42578125" style="1"/>
+    <col min="7165" max="7165" width="13.140625" style="1" customWidth="1"/>
+    <col min="7166" max="7166" width="15.140625" style="1" customWidth="1"/>
     <col min="7167" max="7167" width="42" style="1" customWidth="1"/>
-    <col min="7168" max="7168" width="11.453125" style="1"/>
-    <col min="7169" max="7169" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7170" max="7420" width="11.453125" style="1"/>
-    <col min="7421" max="7421" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7422" max="7422" width="15.1796875" style="1" customWidth="1"/>
+    <col min="7168" max="7168" width="11.42578125" style="1"/>
+    <col min="7169" max="7169" width="13.140625" style="1" customWidth="1"/>
+    <col min="7170" max="7420" width="11.42578125" style="1"/>
+    <col min="7421" max="7421" width="13.140625" style="1" customWidth="1"/>
+    <col min="7422" max="7422" width="15.140625" style="1" customWidth="1"/>
     <col min="7423" max="7423" width="42" style="1" customWidth="1"/>
-    <col min="7424" max="7424" width="11.453125" style="1"/>
-    <col min="7425" max="7425" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7426" max="7676" width="11.453125" style="1"/>
-    <col min="7677" max="7677" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7678" max="7678" width="15.1796875" style="1" customWidth="1"/>
+    <col min="7424" max="7424" width="11.42578125" style="1"/>
+    <col min="7425" max="7425" width="13.140625" style="1" customWidth="1"/>
+    <col min="7426" max="7676" width="11.42578125" style="1"/>
+    <col min="7677" max="7677" width="13.140625" style="1" customWidth="1"/>
+    <col min="7678" max="7678" width="15.140625" style="1" customWidth="1"/>
     <col min="7679" max="7679" width="42" style="1" customWidth="1"/>
-    <col min="7680" max="7680" width="11.453125" style="1"/>
-    <col min="7681" max="7681" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7682" max="7932" width="11.453125" style="1"/>
-    <col min="7933" max="7933" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7934" max="7934" width="15.1796875" style="1" customWidth="1"/>
+    <col min="7680" max="7680" width="11.42578125" style="1"/>
+    <col min="7681" max="7681" width="13.140625" style="1" customWidth="1"/>
+    <col min="7682" max="7932" width="11.42578125" style="1"/>
+    <col min="7933" max="7933" width="13.140625" style="1" customWidth="1"/>
+    <col min="7934" max="7934" width="15.140625" style="1" customWidth="1"/>
     <col min="7935" max="7935" width="42" style="1" customWidth="1"/>
-    <col min="7936" max="7936" width="11.453125" style="1"/>
-    <col min="7937" max="7937" width="13.1796875" style="1" customWidth="1"/>
-    <col min="7938" max="8188" width="11.453125" style="1"/>
-    <col min="8189" max="8189" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8190" max="8190" width="15.1796875" style="1" customWidth="1"/>
+    <col min="7936" max="7936" width="11.42578125" style="1"/>
+    <col min="7937" max="7937" width="13.140625" style="1" customWidth="1"/>
+    <col min="7938" max="8188" width="11.42578125" style="1"/>
+    <col min="8189" max="8189" width="13.140625" style="1" customWidth="1"/>
+    <col min="8190" max="8190" width="15.140625" style="1" customWidth="1"/>
     <col min="8191" max="8191" width="42" style="1" customWidth="1"/>
-    <col min="8192" max="8192" width="11.453125" style="1"/>
-    <col min="8193" max="8193" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8194" max="8444" width="11.453125" style="1"/>
-    <col min="8445" max="8445" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8446" max="8446" width="15.1796875" style="1" customWidth="1"/>
+    <col min="8192" max="8192" width="11.42578125" style="1"/>
+    <col min="8193" max="8193" width="13.140625" style="1" customWidth="1"/>
+    <col min="8194" max="8444" width="11.42578125" style="1"/>
+    <col min="8445" max="8445" width="13.140625" style="1" customWidth="1"/>
+    <col min="8446" max="8446" width="15.140625" style="1" customWidth="1"/>
     <col min="8447" max="8447" width="42" style="1" customWidth="1"/>
-    <col min="8448" max="8448" width="11.453125" style="1"/>
-    <col min="8449" max="8449" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8450" max="8700" width="11.453125" style="1"/>
-    <col min="8701" max="8701" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8702" max="8702" width="15.1796875" style="1" customWidth="1"/>
+    <col min="8448" max="8448" width="11.42578125" style="1"/>
+    <col min="8449" max="8449" width="13.140625" style="1" customWidth="1"/>
+    <col min="8450" max="8700" width="11.42578125" style="1"/>
+    <col min="8701" max="8701" width="13.140625" style="1" customWidth="1"/>
+    <col min="8702" max="8702" width="15.140625" style="1" customWidth="1"/>
     <col min="8703" max="8703" width="42" style="1" customWidth="1"/>
-    <col min="8704" max="8704" width="11.453125" style="1"/>
-    <col min="8705" max="8705" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8706" max="8956" width="11.453125" style="1"/>
-    <col min="8957" max="8957" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8958" max="8958" width="15.1796875" style="1" customWidth="1"/>
+    <col min="8704" max="8704" width="11.42578125" style="1"/>
+    <col min="8705" max="8705" width="13.140625" style="1" customWidth="1"/>
+    <col min="8706" max="8956" width="11.42578125" style="1"/>
+    <col min="8957" max="8957" width="13.140625" style="1" customWidth="1"/>
+    <col min="8958" max="8958" width="15.140625" style="1" customWidth="1"/>
     <col min="8959" max="8959" width="42" style="1" customWidth="1"/>
-    <col min="8960" max="8960" width="11.453125" style="1"/>
-    <col min="8961" max="8961" width="13.1796875" style="1" customWidth="1"/>
-    <col min="8962" max="9212" width="11.453125" style="1"/>
-    <col min="9213" max="9213" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9214" max="9214" width="15.1796875" style="1" customWidth="1"/>
+    <col min="8960" max="8960" width="11.42578125" style="1"/>
+    <col min="8961" max="8961" width="13.140625" style="1" customWidth="1"/>
+    <col min="8962" max="9212" width="11.42578125" style="1"/>
+    <col min="9213" max="9213" width="13.140625" style="1" customWidth="1"/>
+    <col min="9214" max="9214" width="15.140625" style="1" customWidth="1"/>
     <col min="9215" max="9215" width="42" style="1" customWidth="1"/>
-    <col min="9216" max="9216" width="11.453125" style="1"/>
-    <col min="9217" max="9217" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9218" max="9468" width="11.453125" style="1"/>
-    <col min="9469" max="9469" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9470" max="9470" width="15.1796875" style="1" customWidth="1"/>
+    <col min="9216" max="9216" width="11.42578125" style="1"/>
+    <col min="9217" max="9217" width="13.140625" style="1" customWidth="1"/>
+    <col min="9218" max="9468" width="11.42578125" style="1"/>
+    <col min="9469" max="9469" width="13.140625" style="1" customWidth="1"/>
+    <col min="9470" max="9470" width="15.140625" style="1" customWidth="1"/>
     <col min="9471" max="9471" width="42" style="1" customWidth="1"/>
-    <col min="9472" max="9472" width="11.453125" style="1"/>
-    <col min="9473" max="9473" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9474" max="9724" width="11.453125" style="1"/>
-    <col min="9725" max="9725" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9726" max="9726" width="15.1796875" style="1" customWidth="1"/>
+    <col min="9472" max="9472" width="11.42578125" style="1"/>
+    <col min="9473" max="9473" width="13.140625" style="1" customWidth="1"/>
+    <col min="9474" max="9724" width="11.42578125" style="1"/>
+    <col min="9725" max="9725" width="13.140625" style="1" customWidth="1"/>
+    <col min="9726" max="9726" width="15.140625" style="1" customWidth="1"/>
     <col min="9727" max="9727" width="42" style="1" customWidth="1"/>
-    <col min="9728" max="9728" width="11.453125" style="1"/>
-    <col min="9729" max="9729" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9730" max="9980" width="11.453125" style="1"/>
-    <col min="9981" max="9981" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9982" max="9982" width="15.1796875" style="1" customWidth="1"/>
+    <col min="9728" max="9728" width="11.42578125" style="1"/>
+    <col min="9729" max="9729" width="13.140625" style="1" customWidth="1"/>
+    <col min="9730" max="9980" width="11.42578125" style="1"/>
+    <col min="9981" max="9981" width="13.140625" style="1" customWidth="1"/>
+    <col min="9982" max="9982" width="15.140625" style="1" customWidth="1"/>
     <col min="9983" max="9983" width="42" style="1" customWidth="1"/>
-    <col min="9984" max="9984" width="11.453125" style="1"/>
-    <col min="9985" max="9985" width="13.1796875" style="1" customWidth="1"/>
-    <col min="9986" max="10236" width="11.453125" style="1"/>
-    <col min="10237" max="10237" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10238" max="10238" width="15.1796875" style="1" customWidth="1"/>
+    <col min="9984" max="9984" width="11.42578125" style="1"/>
+    <col min="9985" max="9985" width="13.140625" style="1" customWidth="1"/>
+    <col min="9986" max="10236" width="11.42578125" style="1"/>
+    <col min="10237" max="10237" width="13.140625" style="1" customWidth="1"/>
+    <col min="10238" max="10238" width="15.140625" style="1" customWidth="1"/>
     <col min="10239" max="10239" width="42" style="1" customWidth="1"/>
-    <col min="10240" max="10240" width="11.453125" style="1"/>
-    <col min="10241" max="10241" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10242" max="10492" width="11.453125" style="1"/>
-    <col min="10493" max="10493" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10494" max="10494" width="15.1796875" style="1" customWidth="1"/>
+    <col min="10240" max="10240" width="11.42578125" style="1"/>
+    <col min="10241" max="10241" width="13.140625" style="1" customWidth="1"/>
+    <col min="10242" max="10492" width="11.42578125" style="1"/>
+    <col min="10493" max="10493" width="13.140625" style="1" customWidth="1"/>
+    <col min="10494" max="10494" width="15.140625" style="1" customWidth="1"/>
     <col min="10495" max="10495" width="42" style="1" customWidth="1"/>
-    <col min="10496" max="10496" width="11.453125" style="1"/>
-    <col min="10497" max="10497" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10498" max="10748" width="11.453125" style="1"/>
-    <col min="10749" max="10749" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10750" max="10750" width="15.1796875" style="1" customWidth="1"/>
+    <col min="10496" max="10496" width="11.42578125" style="1"/>
+    <col min="10497" max="10497" width="13.140625" style="1" customWidth="1"/>
+    <col min="10498" max="10748" width="11.42578125" style="1"/>
+    <col min="10749" max="10749" width="13.140625" style="1" customWidth="1"/>
+    <col min="10750" max="10750" width="15.140625" style="1" customWidth="1"/>
     <col min="10751" max="10751" width="42" style="1" customWidth="1"/>
-    <col min="10752" max="10752" width="11.453125" style="1"/>
-    <col min="10753" max="10753" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10754" max="11004" width="11.453125" style="1"/>
-    <col min="11005" max="11005" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11006" max="11006" width="15.1796875" style="1" customWidth="1"/>
+    <col min="10752" max="10752" width="11.42578125" style="1"/>
+    <col min="10753" max="10753" width="13.140625" style="1" customWidth="1"/>
+    <col min="10754" max="11004" width="11.42578125" style="1"/>
+    <col min="11005" max="11005" width="13.140625" style="1" customWidth="1"/>
+    <col min="11006" max="11006" width="15.140625" style="1" customWidth="1"/>
     <col min="11007" max="11007" width="42" style="1" customWidth="1"/>
-    <col min="11008" max="11008" width="11.453125" style="1"/>
-    <col min="11009" max="11009" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11010" max="11260" width="11.453125" style="1"/>
-    <col min="11261" max="11261" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11262" max="11262" width="15.1796875" style="1" customWidth="1"/>
+    <col min="11008" max="11008" width="11.42578125" style="1"/>
+    <col min="11009" max="11009" width="13.140625" style="1" customWidth="1"/>
+    <col min="11010" max="11260" width="11.42578125" style="1"/>
+    <col min="11261" max="11261" width="13.140625" style="1" customWidth="1"/>
+    <col min="11262" max="11262" width="15.140625" style="1" customWidth="1"/>
     <col min="11263" max="11263" width="42" style="1" customWidth="1"/>
-    <col min="11264" max="11264" width="11.453125" style="1"/>
-    <col min="11265" max="11265" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11266" max="11516" width="11.453125" style="1"/>
-    <col min="11517" max="11517" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11518" max="11518" width="15.1796875" style="1" customWidth="1"/>
+    <col min="11264" max="11264" width="11.42578125" style="1"/>
+    <col min="11265" max="11265" width="13.140625" style="1" customWidth="1"/>
+    <col min="11266" max="11516" width="11.42578125" style="1"/>
+    <col min="11517" max="11517" width="13.140625" style="1" customWidth="1"/>
+    <col min="11518" max="11518" width="15.140625" style="1" customWidth="1"/>
     <col min="11519" max="11519" width="42" style="1" customWidth="1"/>
-    <col min="11520" max="11520" width="11.453125" style="1"/>
-    <col min="11521" max="11521" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11522" max="11772" width="11.453125" style="1"/>
-    <col min="11773" max="11773" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11774" max="11774" width="15.1796875" style="1" customWidth="1"/>
+    <col min="11520" max="11520" width="11.42578125" style="1"/>
+    <col min="11521" max="11521" width="13.140625" style="1" customWidth="1"/>
+    <col min="11522" max="11772" width="11.42578125" style="1"/>
+    <col min="11773" max="11773" width="13.140625" style="1" customWidth="1"/>
+    <col min="11774" max="11774" width="15.140625" style="1" customWidth="1"/>
     <col min="11775" max="11775" width="42" style="1" customWidth="1"/>
-    <col min="11776" max="11776" width="11.453125" style="1"/>
-    <col min="11777" max="11777" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11778" max="12028" width="11.453125" style="1"/>
-    <col min="12029" max="12029" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12030" max="12030" width="15.1796875" style="1" customWidth="1"/>
+    <col min="11776" max="11776" width="11.42578125" style="1"/>
+    <col min="11777" max="11777" width="13.140625" style="1" customWidth="1"/>
+    <col min="11778" max="12028" width="11.42578125" style="1"/>
+    <col min="12029" max="12029" width="13.140625" style="1" customWidth="1"/>
+    <col min="12030" max="12030" width="15.140625" style="1" customWidth="1"/>
     <col min="12031" max="12031" width="42" style="1" customWidth="1"/>
-    <col min="12032" max="12032" width="11.453125" style="1"/>
-    <col min="12033" max="12033" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12034" max="12284" width="11.453125" style="1"/>
-    <col min="12285" max="12285" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12286" max="12286" width="15.1796875" style="1" customWidth="1"/>
+    <col min="12032" max="12032" width="11.42578125" style="1"/>
+    <col min="12033" max="12033" width="13.140625" style="1" customWidth="1"/>
+    <col min="12034" max="12284" width="11.42578125" style="1"/>
+    <col min="12285" max="12285" width="13.140625" style="1" customWidth="1"/>
+    <col min="12286" max="12286" width="15.140625" style="1" customWidth="1"/>
     <col min="12287" max="12287" width="42" style="1" customWidth="1"/>
-    <col min="12288" max="12288" width="11.453125" style="1"/>
-    <col min="12289" max="12289" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12290" max="12540" width="11.453125" style="1"/>
-    <col min="12541" max="12541" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12542" max="12542" width="15.1796875" style="1" customWidth="1"/>
+    <col min="12288" max="12288" width="11.42578125" style="1"/>
+    <col min="12289" max="12289" width="13.140625" style="1" customWidth="1"/>
+    <col min="12290" max="12540" width="11.42578125" style="1"/>
+    <col min="12541" max="12541" width="13.140625" style="1" customWidth="1"/>
+    <col min="12542" max="12542" width="15.140625" style="1" customWidth="1"/>
     <col min="12543" max="12543" width="42" style="1" customWidth="1"/>
-    <col min="12544" max="12544" width="11.453125" style="1"/>
-    <col min="12545" max="12545" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12546" max="12796" width="11.453125" style="1"/>
-    <col min="12797" max="12797" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12798" max="12798" width="15.1796875" style="1" customWidth="1"/>
+    <col min="12544" max="12544" width="11.42578125" style="1"/>
+    <col min="12545" max="12545" width="13.140625" style="1" customWidth="1"/>
+    <col min="12546" max="12796" width="11.42578125" style="1"/>
+    <col min="12797" max="12797" width="13.140625" style="1" customWidth="1"/>
+    <col min="12798" max="12798" width="15.140625" style="1" customWidth="1"/>
     <col min="12799" max="12799" width="42" style="1" customWidth="1"/>
-    <col min="12800" max="12800" width="11.453125" style="1"/>
-    <col min="12801" max="12801" width="13.1796875" style="1" customWidth="1"/>
-    <col min="12802" max="13052" width="11.453125" style="1"/>
-    <col min="13053" max="13053" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13054" max="13054" width="15.1796875" style="1" customWidth="1"/>
+    <col min="12800" max="12800" width="11.42578125" style="1"/>
+    <col min="12801" max="12801" width="13.140625" style="1" customWidth="1"/>
+    <col min="12802" max="13052" width="11.42578125" style="1"/>
+    <col min="13053" max="13053" width="13.140625" style="1" customWidth="1"/>
+    <col min="13054" max="13054" width="15.140625" style="1" customWidth="1"/>
     <col min="13055" max="13055" width="42" style="1" customWidth="1"/>
-    <col min="13056" max="13056" width="11.453125" style="1"/>
-    <col min="13057" max="13057" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13058" max="13308" width="11.453125" style="1"/>
-    <col min="13309" max="13309" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13310" max="13310" width="15.1796875" style="1" customWidth="1"/>
+    <col min="13056" max="13056" width="11.42578125" style="1"/>
+    <col min="13057" max="13057" width="13.140625" style="1" customWidth="1"/>
+    <col min="13058" max="13308" width="11.42578125" style="1"/>
+    <col min="13309" max="13309" width="13.140625" style="1" customWidth="1"/>
+    <col min="13310" max="13310" width="15.140625" style="1" customWidth="1"/>
     <col min="13311" max="13311" width="42" style="1" customWidth="1"/>
-    <col min="13312" max="13312" width="11.453125" style="1"/>
-    <col min="13313" max="13313" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13314" max="13564" width="11.453125" style="1"/>
-    <col min="13565" max="13565" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13566" max="13566" width="15.1796875" style="1" customWidth="1"/>
+    <col min="13312" max="13312" width="11.42578125" style="1"/>
+    <col min="13313" max="13313" width="13.140625" style="1" customWidth="1"/>
+    <col min="13314" max="13564" width="11.42578125" style="1"/>
+    <col min="13565" max="13565" width="13.140625" style="1" customWidth="1"/>
+    <col min="13566" max="13566" width="15.140625" style="1" customWidth="1"/>
     <col min="13567" max="13567" width="42" style="1" customWidth="1"/>
-    <col min="13568" max="13568" width="11.453125" style="1"/>
-    <col min="13569" max="13569" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13570" max="13820" width="11.453125" style="1"/>
-    <col min="13821" max="13821" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13822" max="13822" width="15.1796875" style="1" customWidth="1"/>
+    <col min="13568" max="13568" width="11.42578125" style="1"/>
+    <col min="13569" max="13569" width="13.140625" style="1" customWidth="1"/>
+    <col min="13570" max="13820" width="11.42578125" style="1"/>
+    <col min="13821" max="13821" width="13.140625" style="1" customWidth="1"/>
+    <col min="13822" max="13822" width="15.140625" style="1" customWidth="1"/>
     <col min="13823" max="13823" width="42" style="1" customWidth="1"/>
-    <col min="13824" max="13824" width="11.453125" style="1"/>
-    <col min="13825" max="13825" width="13.1796875" style="1" customWidth="1"/>
-    <col min="13826" max="14076" width="11.453125" style="1"/>
-    <col min="14077" max="14077" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14078" max="14078" width="15.1796875" style="1" customWidth="1"/>
+    <col min="13824" max="13824" width="11.42578125" style="1"/>
+    <col min="13825" max="13825" width="13.140625" style="1" customWidth="1"/>
+    <col min="13826" max="14076" width="11.42578125" style="1"/>
+    <col min="14077" max="14077" width="13.140625" style="1" customWidth="1"/>
+    <col min="14078" max="14078" width="15.140625" style="1" customWidth="1"/>
     <col min="14079" max="14079" width="42" style="1" customWidth="1"/>
-    <col min="14080" max="14080" width="11.453125" style="1"/>
-    <col min="14081" max="14081" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14082" max="14332" width="11.453125" style="1"/>
-    <col min="14333" max="14333" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14334" max="14334" width="15.1796875" style="1" customWidth="1"/>
+    <col min="14080" max="14080" width="11.42578125" style="1"/>
+    <col min="14081" max="14081" width="13.140625" style="1" customWidth="1"/>
+    <col min="14082" max="14332" width="11.42578125" style="1"/>
+    <col min="14333" max="14333" width="13.140625" style="1" customWidth="1"/>
+    <col min="14334" max="14334" width="15.140625" style="1" customWidth="1"/>
     <col min="14335" max="14335" width="42" style="1" customWidth="1"/>
-    <col min="14336" max="14336" width="11.453125" style="1"/>
-    <col min="14337" max="14337" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14338" max="14588" width="11.453125" style="1"/>
-    <col min="14589" max="14589" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14590" max="14590" width="15.1796875" style="1" customWidth="1"/>
+    <col min="14336" max="14336" width="11.42578125" style="1"/>
+    <col min="14337" max="14337" width="13.140625" style="1" customWidth="1"/>
+    <col min="14338" max="14588" width="11.42578125" style="1"/>
+    <col min="14589" max="14589" width="13.140625" style="1" customWidth="1"/>
+    <col min="14590" max="14590" width="15.140625" style="1" customWidth="1"/>
     <col min="14591" max="14591" width="42" style="1" customWidth="1"/>
-    <col min="14592" max="14592" width="11.453125" style="1"/>
-    <col min="14593" max="14593" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14594" max="14844" width="11.453125" style="1"/>
-    <col min="14845" max="14845" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14846" max="14846" width="15.1796875" style="1" customWidth="1"/>
+    <col min="14592" max="14592" width="11.42578125" style="1"/>
+    <col min="14593" max="14593" width="13.140625" style="1" customWidth="1"/>
+    <col min="14594" max="14844" width="11.42578125" style="1"/>
+    <col min="14845" max="14845" width="13.140625" style="1" customWidth="1"/>
+    <col min="14846" max="14846" width="15.140625" style="1" customWidth="1"/>
     <col min="14847" max="14847" width="42" style="1" customWidth="1"/>
-    <col min="14848" max="14848" width="11.453125" style="1"/>
-    <col min="14849" max="14849" width="13.1796875" style="1" customWidth="1"/>
-    <col min="14850" max="15100" width="11.453125" style="1"/>
-    <col min="15101" max="15101" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15102" max="15102" width="15.1796875" style="1" customWidth="1"/>
+    <col min="14848" max="14848" width="11.42578125" style="1"/>
+    <col min="14849" max="14849" width="13.140625" style="1" customWidth="1"/>
+    <col min="14850" max="15100" width="11.42578125" style="1"/>
+    <col min="15101" max="15101" width="13.140625" style="1" customWidth="1"/>
+    <col min="15102" max="15102" width="15.140625" style="1" customWidth="1"/>
     <col min="15103" max="15103" width="42" style="1" customWidth="1"/>
-    <col min="15104" max="15104" width="11.453125" style="1"/>
-    <col min="15105" max="15105" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15106" max="15356" width="11.453125" style="1"/>
-    <col min="15357" max="15357" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15358" max="15358" width="15.1796875" style="1" customWidth="1"/>
+    <col min="15104" max="15104" width="11.42578125" style="1"/>
+    <col min="15105" max="15105" width="13.140625" style="1" customWidth="1"/>
+    <col min="15106" max="15356" width="11.42578125" style="1"/>
+    <col min="15357" max="15357" width="13.140625" style="1" customWidth="1"/>
+    <col min="15358" max="15358" width="15.140625" style="1" customWidth="1"/>
     <col min="15359" max="15359" width="42" style="1" customWidth="1"/>
-    <col min="15360" max="15360" width="11.453125" style="1"/>
-    <col min="15361" max="15361" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15362" max="15612" width="11.453125" style="1"/>
-    <col min="15613" max="15613" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15614" max="15614" width="15.1796875" style="1" customWidth="1"/>
+    <col min="15360" max="15360" width="11.42578125" style="1"/>
+    <col min="15361" max="15361" width="13.140625" style="1" customWidth="1"/>
+    <col min="15362" max="15612" width="11.42578125" style="1"/>
+    <col min="15613" max="15613" width="13.140625" style="1" customWidth="1"/>
+    <col min="15614" max="15614" width="15.140625" style="1" customWidth="1"/>
     <col min="15615" max="15615" width="42" style="1" customWidth="1"/>
-    <col min="15616" max="15616" width="11.453125" style="1"/>
-    <col min="15617" max="15617" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15618" max="15868" width="11.453125" style="1"/>
-    <col min="15869" max="15869" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15870" max="15870" width="15.1796875" style="1" customWidth="1"/>
+    <col min="15616" max="15616" width="11.42578125" style="1"/>
+    <col min="15617" max="15617" width="13.140625" style="1" customWidth="1"/>
+    <col min="15618" max="15868" width="11.42578125" style="1"/>
+    <col min="15869" max="15869" width="13.140625" style="1" customWidth="1"/>
+    <col min="15870" max="15870" width="15.140625" style="1" customWidth="1"/>
     <col min="15871" max="15871" width="42" style="1" customWidth="1"/>
-    <col min="15872" max="15872" width="11.453125" style="1"/>
-    <col min="15873" max="15873" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15874" max="16124" width="11.453125" style="1"/>
-    <col min="16125" max="16125" width="13.1796875" style="1" customWidth="1"/>
-    <col min="16126" max="16126" width="15.1796875" style="1" customWidth="1"/>
+    <col min="15872" max="15872" width="11.42578125" style="1"/>
+    <col min="15873" max="15873" width="13.140625" style="1" customWidth="1"/>
+    <col min="15874" max="16124" width="11.42578125" style="1"/>
+    <col min="16125" max="16125" width="13.140625" style="1" customWidth="1"/>
+    <col min="16126" max="16126" width="15.140625" style="1" customWidth="1"/>
     <col min="16127" max="16127" width="42" style="1" customWidth="1"/>
-    <col min="16128" max="16128" width="11.453125" style="1"/>
-    <col min="16129" max="16129" width="13.1796875" style="1" customWidth="1"/>
-    <col min="16130" max="16384" width="11.453125" style="1"/>
+    <col min="16128" max="16128" width="11.42578125" style="1"/>
+    <col min="16129" max="16129" width="13.140625" style="1" customWidth="1"/>
+    <col min="16130" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="78" t="s">
@@ -2126,7 +2138,7 @@
       </c>
       <c r="E2" s="81"/>
     </row>
-    <row r="3" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="43"/>
       <c r="B3" s="44"/>
       <c r="C3" s="79"/>
@@ -2135,7 +2147,7 @@
       </c>
       <c r="E3" s="46"/>
     </row>
-    <row r="4" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="43"/>
       <c r="B4" s="44"/>
       <c r="C4" s="82" t="s">
@@ -2146,7 +2158,7 @@
       </c>
       <c r="E4" s="85"/>
     </row>
-    <row r="5" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
       <c r="C5" s="83"/>
@@ -2206,7 +2218,7 @@
       <c r="G9" s="40"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2215,7 +2227,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="76" t="s">
         <v>116</v>
       </c>
@@ -2232,7 +2244,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2241,7 +2253,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
@@ -2258,7 +2270,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2267,7 +2279,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2296,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2293,7 +2305,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
@@ -2306,7 +2318,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2315,7 +2327,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>13</v>
       </c>
@@ -2328,7 +2340,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2337,7 +2349,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>124</v>
       </c>
@@ -2348,7 +2360,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="10"/>
       <c r="C22" s="5"/>
@@ -2357,7 +2369,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="75" t="s">
         <v>22</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="59" t="s">
         <v>128</v>
       </c>
@@ -2837,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="59" t="s">
         <v>148</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="49" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="59" t="s">
         <v>149</v>
       </c>
@@ -2877,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="50" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="59" t="s">
         <v>150</v>
       </c>
@@ -2894,7 +2906,7 @@
       <c r="F50" s="27"/>
       <c r="G50" s="74"/>
     </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="51" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="62"/>
       <c r="B51" s="12"/>
       <c r="C51" s="57"/>
@@ -2909,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="52" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="62" t="s">
         <v>160</v>
       </c>
@@ -2929,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="53" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="62" t="s">
         <v>161</v>
       </c>
@@ -2949,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="54" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="62" t="s">
         <v>162</v>
       </c>
@@ -2969,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="55" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="62" t="s">
         <v>154</v>
       </c>
@@ -2989,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="56" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="62" t="s">
         <v>154</v>
       </c>
@@ -3006,7 +3018,7 @@
       <c r="F56" s="27"/>
       <c r="G56" s="74"/>
     </row>
-    <row r="57" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="57" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="62" t="s">
         <v>155</v>
       </c>
@@ -3026,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="58" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="62" t="s">
         <v>155</v>
       </c>
@@ -3046,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="59" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="62" t="s">
         <v>156</v>
       </c>
@@ -3066,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="60" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="62" t="s">
         <v>156</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="61" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="62" t="s">
         <v>157</v>
       </c>
@@ -3097,7 +3109,7 @@
         <v>86</v>
       </c>
       <c r="D61" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="27"/>
@@ -3106,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="62" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="62" t="s">
         <v>157</v>
       </c>
@@ -3117,7 +3129,7 @@
         <v>86</v>
       </c>
       <c r="D62" s="60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="27"/>
@@ -3126,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="63" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="62" t="s">
         <v>158</v>
       </c>
@@ -3146,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="64" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="62" t="s">
         <v>159</v>
       </c>
@@ -3163,7 +3175,7 @@
       <c r="F64" s="27"/>
       <c r="G64" s="74"/>
     </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="62" t="s">
         <v>163</v>
       </c>
@@ -3183,13 +3195,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="66" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="59"/>
       <c r="B66" s="12"/>
       <c r="C66" s="57"/>
       <c r="D66" s="61">
         <f>SUM(D52:D65)</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="27"/>
@@ -3198,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="59" t="s">
         <v>170</v>
       </c>
@@ -3218,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="68" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="59" t="s">
         <v>171</v>
       </c>
@@ -3238,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="69" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="59" t="s">
         <v>172</v>
       </c>
@@ -3258,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="70" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="59" t="s">
         <v>173</v>
       </c>
@@ -3278,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="71" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="59" t="s">
         <v>153</v>
       </c>
@@ -3298,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="72" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="59" t="s">
         <v>153</v>
       </c>
@@ -3318,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="59" t="s">
         <v>174</v>
       </c>
@@ -3335,7 +3347,7 @@
       <c r="F73" s="27"/>
       <c r="G73" s="74"/>
     </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="74" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="59" t="s">
         <v>164</v>
       </c>
@@ -3355,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="75" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="59" t="s">
         <v>164</v>
       </c>
@@ -3435,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="6" customFormat="1" ht="15.5">
+    <row r="79" spans="1:7" s="6" customFormat="1" ht="15.75">
       <c r="A79" s="59" t="s">
         <v>168</v>
       </c>
@@ -3452,7 +3464,7 @@
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
     </row>
-    <row r="80" spans="1:7" s="6" customFormat="1" ht="15.5">
+    <row r="80" spans="1:7" s="6" customFormat="1" ht="15.75">
       <c r="A80" s="59" t="s">
         <v>168</v>
       </c>
@@ -3469,7 +3481,7 @@
       <c r="F80" s="31"/>
       <c r="G80" s="31"/>
     </row>
-    <row r="81" spans="1:7" s="25" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="81" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="59" t="s">
         <v>169</v>
       </c>
@@ -3486,7 +3498,7 @@
       <c r="F81" s="65"/>
       <c r="G81" s="65"/>
     </row>
-    <row r="82" spans="1:7" s="25" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="82" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="59" t="s">
         <v>176</v>
       </c>
@@ -3503,7 +3515,7 @@
       <c r="F82" s="65"/>
       <c r="G82" s="65"/>
     </row>
-    <row r="83" spans="1:7" s="25" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="83" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="63"/>
       <c r="B83" s="12"/>
       <c r="C83" s="64"/>
@@ -3515,7 +3527,7 @@
       <c r="F83" s="65"/>
       <c r="G83" s="65"/>
     </row>
-    <row r="84" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="32"/>
       <c r="B84" s="4"/>
       <c r="C84" s="33"/>
@@ -3525,7 +3537,7 @@
       </c>
       <c r="G84" s="30"/>
     </row>
-    <row r="85" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="85" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="32"/>
       <c r="B85" s="4"/>
       <c r="C85" s="33"/>
@@ -3535,19 +3547,19 @@
       </c>
       <c r="G85" s="29"/>
     </row>
-    <row r="86" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="F86" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="29"/>
     </row>
-    <row r="87" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="87" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B87" s="55"/>
       <c r="C87" s="58" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="88" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B88" s="58" t="s">
         <v>93</v>
       </c>
@@ -3555,7 +3567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="89" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B89" s="54">
         <v>1</v>
       </c>
@@ -3563,7 +3575,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="90" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="54">
         <v>1</v>
       </c>
@@ -3571,7 +3583,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="91" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B91" s="56">
         <v>1</v>
       </c>
@@ -3579,7 +3591,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="92" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B92" s="56">
         <v>1</v>
       </c>
@@ -3587,7 +3599,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="93" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B93" s="54">
         <v>1</v>
       </c>
@@ -3595,7 +3607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="94" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="56">
         <v>1</v>
       </c>
@@ -3603,7 +3615,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="95" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B95" s="56">
         <v>1</v>
       </c>
@@ -3611,7 +3623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="96" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B96" s="56">
         <v>1</v>
       </c>
@@ -3619,7 +3631,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="97" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B97" s="56">
         <v>1</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="98" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="56">
         <v>1</v>
       </c>
@@ -3635,7 +3647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="99" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="56">
         <v>2</v>
       </c>
@@ -3643,7 +3655,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="100" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B100" s="54">
         <v>1</v>
       </c>
@@ -3651,7 +3663,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="101" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B101" s="56">
         <v>1</v>
       </c>
@@ -3659,32 +3671,32 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="102" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="56"/>
       <c r="C102" s="55" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="103" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B103" s="58">
         <f>SUM(B89:B102)</f>
         <v>14</v>
       </c>
       <c r="C103" s="55"/>
     </row>
-    <row r="104" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="104" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B104" s="35"/>
       <c r="C104" s="36"/>
     </row>
-    <row r="105" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="105" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B105" s="37"/>
       <c r="C105" s="38"/>
     </row>
-    <row r="106" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="106" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B106" s="37"/>
       <c r="C106" s="38"/>
     </row>
-    <row r="107" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="107" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B107" s="69" t="s">
         <v>131</v>
       </c>
@@ -3693,40 +3705,40 @@
       </c>
       <c r="D107" s="71"/>
     </row>
-    <row r="108" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="108" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B108" s="69"/>
       <c r="C108" s="70" t="s">
         <v>133</v>
       </c>
       <c r="D108" s="71"/>
     </row>
-    <row r="109" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="109" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B109" s="69"/>
       <c r="C109" s="70" t="s">
         <v>134</v>
       </c>
       <c r="D109" s="71"/>
     </row>
-    <row r="110" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="110" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B110" s="69"/>
       <c r="C110" s="70" t="s">
         <v>135</v>
       </c>
       <c r="D110" s="71"/>
     </row>
-    <row r="111" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="111" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B111" s="69"/>
       <c r="C111" s="70" t="s">
         <v>136</v>
       </c>
       <c r="D111" s="71"/>
     </row>
-    <row r="112" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="112" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B112" s="69"/>
       <c r="C112" s="70"/>
       <c r="D112" s="71"/>
     </row>
-    <row r="113" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="113" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B113" s="72" t="s">
         <v>117</v>
       </c>
@@ -3735,97 +3747,97 @@
       </c>
       <c r="D113" s="71"/>
     </row>
-    <row r="114" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="114" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B114" s="72"/>
       <c r="C114" s="73" t="s">
         <v>138</v>
       </c>
       <c r="D114" s="71"/>
     </row>
-    <row r="115" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="115" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B115" s="72"/>
       <c r="C115" s="73" t="s">
         <v>139</v>
       </c>
       <c r="D115" s="71"/>
     </row>
-    <row r="116" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="116" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B116" s="67"/>
       <c r="C116" s="68"/>
     </row>
-    <row r="117" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="117" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B117" s="67"/>
       <c r="C117" s="68"/>
     </row>
-    <row r="118" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="118" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B118" s="5"/>
       <c r="C118" s="10"/>
     </row>
-    <row r="119" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="119" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B119"/>
       <c r="C119" s="10"/>
     </row>
-    <row r="120" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="120" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B120"/>
       <c r="C120" s="10"/>
     </row>
-    <row r="121" spans="2:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="121" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B121" s="5" t="s">
         <v>125</v>
       </c>
       <c r="C121" s="66"/>
     </row>
-    <row r="122" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="122" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B122" s="5"/>
       <c r="C122"/>
     </row>
-    <row r="123" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="123" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B123" s="5"/>
       <c r="C123"/>
     </row>
-    <row r="124" spans="2:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="124" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B124" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C124" s="66"/>
     </row>
-    <row r="125" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="125" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B125" s="5"/>
       <c r="C125"/>
     </row>
-    <row r="126" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="126" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B126" s="5"/>
       <c r="C126"/>
     </row>
-    <row r="127" spans="2:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="127" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B127" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C127" s="66"/>
     </row>
-    <row r="128" spans="2:4" ht="20.149999999999999" customHeight="1">
+    <row r="128" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B128" s="5"/>
       <c r="C128"/>
     </row>
-    <row r="129" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="129" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B129" s="5"/>
       <c r="C129"/>
     </row>
-    <row r="130" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="130" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B130" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C130" s="66"/>
     </row>
-    <row r="131" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="131" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B131" s="5"/>
       <c r="C131"/>
     </row>
-    <row r="132" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="132" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B132" s="5"/>
       <c r="C132"/>
     </row>
-    <row r="133" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="133" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B133" s="5" t="s">
         <v>30</v>
       </c>
